--- a/Reporte_Pension.xlsx
+++ b/Reporte_Pension.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>Dirección Regional 11 de Educación</t>
   </si>
@@ -50,6 +50,129 @@
     <t>Puesto</t>
   </si>
   <si>
+    <t xml:space="preserve">Vidal </t>
+  </si>
+  <si>
+    <t>Francisco Nuñez</t>
+  </si>
+  <si>
+    <t>038-0006331-9</t>
+  </si>
+  <si>
+    <t>809-3613033</t>
+  </si>
+  <si>
+    <t>11-02</t>
+  </si>
+  <si>
+    <t>07597 - PROF. JUANA CARABALLO POLANCO</t>
+  </si>
+  <si>
+    <t>Coordinador docente Segundo Ci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalina </t>
+  </si>
+  <si>
+    <t>Gonzalez Osorio</t>
+  </si>
+  <si>
+    <t>037-0031542-1</t>
+  </si>
+  <si>
+    <t>809-261-3687</t>
+  </si>
+  <si>
+    <t>07575 - POLITECNICO GREGORIO URBANO GILBERT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maestro técnico Profesional  </t>
+  </si>
+  <si>
+    <t>Mercedes Cesarina</t>
+  </si>
+  <si>
+    <t>Rosario Lopez</t>
+  </si>
+  <si>
+    <t>037-0021093-7</t>
+  </si>
+  <si>
+    <t>829-342-6618</t>
+  </si>
+  <si>
+    <t>11-03</t>
+  </si>
+  <si>
+    <t>02631 - JUAN NEPOMUCENO RAVELO</t>
+  </si>
+  <si>
+    <t>Orientadora</t>
+  </si>
+  <si>
+    <t>Xiomara Josefina</t>
+  </si>
+  <si>
+    <t>Vargas Cabrera De Lora</t>
+  </si>
+  <si>
+    <t>038-0000872-8</t>
+  </si>
+  <si>
+    <t>829-216-2360</t>
+  </si>
+  <si>
+    <t>Maestro Basica</t>
+  </si>
+  <si>
+    <t>YNGRID VANESSA DE LA ALT.</t>
+  </si>
+  <si>
+    <t>PEREZ CABRERA</t>
+  </si>
+  <si>
+    <t>038-0002271-1</t>
+  </si>
+  <si>
+    <t>809-241-4748</t>
+  </si>
+  <si>
+    <t>07621 - PROF. ISRAEL BRITO BRUNO</t>
+  </si>
+  <si>
+    <t>MAESTRA DE MEDIA GENERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRISMELY SANTOS </t>
+  </si>
+  <si>
+    <t>CABRERA DE MARTINEZ</t>
+  </si>
+  <si>
+    <t>038-0013129-8</t>
+  </si>
+  <si>
+    <t>347-261-6282</t>
+  </si>
+  <si>
+    <t>MAESTRA DE BASICA Y DE INFORMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMÓN </t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>040-0004110-5</t>
+  </si>
+  <si>
+    <t>809-313-8156</t>
+  </si>
+  <si>
+    <t>02640 - DELIA GOMEZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEDEA </t>
   </si>
   <si>
@@ -62,51 +185,12 @@
     <t>809-261-2214</t>
   </si>
   <si>
-    <t>11-02</t>
-  </si>
-  <si>
     <t>02520 - ANDRES BRUGAL MONTA¥EZ</t>
   </si>
   <si>
     <t>MAESTRA</t>
   </si>
   <si>
-    <t xml:space="preserve">Catalina </t>
-  </si>
-  <si>
-    <t>Gonzalez Osorio</t>
-  </si>
-  <si>
-    <t>037-0031542-1</t>
-  </si>
-  <si>
-    <t>809-261-3687</t>
-  </si>
-  <si>
-    <t>07575 - POLITECNICO GREGORIO URBANO GILBERT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maestro técnico Profesional  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vidal </t>
-  </si>
-  <si>
-    <t>Francisco Nuñez</t>
-  </si>
-  <si>
-    <t>038-0006331-9</t>
-  </si>
-  <si>
-    <t>809-3613033</t>
-  </si>
-  <si>
-    <t>07597 - PROF. JUANA CARABALLO POLANCO</t>
-  </si>
-  <si>
-    <t>Coordinador docente Segundo Ci</t>
-  </si>
-  <si>
     <t xml:space="preserve">LUZ ILUMINADA </t>
   </si>
   <si>
@@ -125,70 +209,91 @@
     <t>DIRECTOR</t>
   </si>
   <si>
-    <t>Mercedes Cesarina</t>
-  </si>
-  <si>
-    <t>Rosario Lopez</t>
-  </si>
-  <si>
-    <t>037-0021093-7</t>
-  </si>
-  <si>
-    <t>829-342-6618</t>
-  </si>
-  <si>
-    <t>11-03</t>
-  </si>
-  <si>
-    <t>02631 - JUAN NEPOMUCENO RAVELO</t>
-  </si>
-  <si>
-    <t>Orientadora</t>
-  </si>
-  <si>
-    <t>Xiomara Josefina</t>
-  </si>
-  <si>
-    <t>Vargas Cabrera De Lora</t>
-  </si>
-  <si>
-    <t>038-0000872-8</t>
-  </si>
-  <si>
-    <t>829-216-2360</t>
-  </si>
-  <si>
-    <t>Maestro Basica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRISMELY SANTOS </t>
-  </si>
-  <si>
-    <t>CABRERA DE MARTINEZ</t>
-  </si>
-  <si>
-    <t>038-0013129-8</t>
-  </si>
-  <si>
-    <t>347-261-6282</t>
-  </si>
-  <si>
-    <t>MAESTRA DE BASICA Y DE INFORMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAMÓN </t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>040-0004110-5</t>
-  </si>
-  <si>
-    <t>809-313-8156</t>
-  </si>
-  <si>
-    <t>02640 - DELIA GOMEZ</t>
+    <t>AGUSTINA</t>
+  </si>
+  <si>
+    <t>PEÑA DE JORGE</t>
+  </si>
+  <si>
+    <t>039-0001000-4</t>
+  </si>
+  <si>
+    <t>809-571-7165</t>
+  </si>
+  <si>
+    <t>11-05</t>
+  </si>
+  <si>
+    <t>02594 - LA JAGUA</t>
+  </si>
+  <si>
+    <t>MAESTRA DE BASICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIA </t>
+  </si>
+  <si>
+    <t>LOGROÑO SALAS</t>
+  </si>
+  <si>
+    <t>001-0464469-5</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MENDEZ OZORIA</t>
+  </si>
+  <si>
+    <t>039-0013639-5</t>
+  </si>
+  <si>
+    <t>02585 - ESCALERA ARRIBA</t>
+  </si>
+  <si>
+    <t>DIRECTORA DE BASICA</t>
+  </si>
+  <si>
+    <t>BERNARDITA DEL LOURDES</t>
+  </si>
+  <si>
+    <t>ABREU MARTINEZ</t>
+  </si>
+  <si>
+    <t>039-0000379-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTIA </t>
+  </si>
+  <si>
+    <t>TRINIDAD</t>
+  </si>
+  <si>
+    <t>039-0008611-1</t>
+  </si>
+  <si>
+    <t>849-658-2692</t>
+  </si>
+  <si>
+    <t>02608 - PESCADO BOBO ABAJO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARMEN </t>
+  </si>
+  <si>
+    <t>CASTILLO ABREU</t>
+  </si>
+  <si>
+    <t>038-0000405-7</t>
+  </si>
+  <si>
+    <t>809-581-2889</t>
+  </si>
+  <si>
+    <t>DIRECCION DISTRITAL 11-03 IMBERT</t>
+  </si>
+  <si>
+    <t>TECNICO DE MATEMATICA</t>
   </si>
   <si>
     <t xml:space="preserve">DUDI ALTAGRACIA </t>
@@ -209,109 +314,70 @@
     <t>ENCARGADA DE REGISTRO</t>
   </si>
   <si>
-    <t>YNGRID VANESSA DE LA ALT.</t>
-  </si>
-  <si>
-    <t>PEREZ CABRERA</t>
-  </si>
-  <si>
-    <t>038-0002271-1</t>
-  </si>
-  <si>
-    <t>809-241-4748</t>
-  </si>
-  <si>
-    <t>07621 - PROF. ISRAEL BRITO BRUNO</t>
-  </si>
-  <si>
-    <t>MAESTRA DE MEDIA GENERAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUCIA </t>
-  </si>
-  <si>
-    <t>MENDEZ OZORIA</t>
-  </si>
-  <si>
-    <t>039-0013639-5</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>11-05</t>
-  </si>
-  <si>
-    <t>02585 - ESCALERA ARRIBA</t>
-  </si>
-  <si>
-    <t>DIRECTORA DE BASICA</t>
-  </si>
-  <si>
-    <t>AGUSTINA</t>
-  </si>
-  <si>
-    <t>PEÑA DE JORGE</t>
-  </si>
-  <si>
-    <t>039-0001000-4</t>
-  </si>
-  <si>
-    <t>809-571-7165</t>
-  </si>
-  <si>
-    <t>02594 - LA JAGUA</t>
-  </si>
-  <si>
-    <t>MAESTRA DE BASICA</t>
-  </si>
-  <si>
-    <t>LOGROÑO SALAS</t>
-  </si>
-  <si>
-    <t>001-0464469-5</t>
-  </si>
-  <si>
-    <t>BERNARDITA DEL LOURDES</t>
-  </si>
-  <si>
-    <t>ABREU MARTINEZ</t>
-  </si>
-  <si>
-    <t>039-0000379-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTIA </t>
-  </si>
-  <si>
-    <t>TRINIDAD</t>
-  </si>
-  <si>
-    <t>039-0008611-1</t>
-  </si>
-  <si>
-    <t>849-658-2692</t>
-  </si>
-  <si>
-    <t>02608 - PESCADO BOBO ABAJO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARMEN </t>
-  </si>
-  <si>
-    <t>CASTILLO ABREU</t>
-  </si>
-  <si>
-    <t>038-0000405-7</t>
-  </si>
-  <si>
-    <t>809-581-2889</t>
-  </si>
-  <si>
-    <t>DIRECCION DISTRITAL 11-03 IMBERT</t>
-  </si>
-  <si>
-    <t>TECNICO DE MATEMATICA</t>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>040-0006063-4</t>
+  </si>
+  <si>
+    <t>829-336-2562</t>
+  </si>
+  <si>
+    <t>11-04</t>
+  </si>
+  <si>
+    <t>02688 - RANCHITO DE LOS VARGAS (ROLANDO ERIKSON)</t>
+  </si>
+  <si>
+    <t>DIRECTORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro </t>
+  </si>
+  <si>
+    <t>Flete Tejada</t>
+  </si>
+  <si>
+    <t>037-0032069-4</t>
+  </si>
+  <si>
+    <t>829-872-6667</t>
+  </si>
+  <si>
+    <t>02551 - SABANA GRANDE</t>
+  </si>
+  <si>
+    <t>DIRECTOR DE BASICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derelis </t>
+  </si>
+  <si>
+    <t>Cruz Marte</t>
+  </si>
+  <si>
+    <t>037-0085502-9</t>
+  </si>
+  <si>
+    <t>809-839-2930</t>
+  </si>
+  <si>
+    <t>07654 - GREGORIO LUPERON</t>
+  </si>
+  <si>
+    <t>YASMIN</t>
+  </si>
+  <si>
+    <t>PASCUAL DE HIRALDO</t>
+  </si>
+  <si>
+    <t>037-0034679-8</t>
+  </si>
+  <si>
+    <t>809-394-7960</t>
+  </si>
+  <si>
+    <t>02542 - ANACAONA</t>
   </si>
 </sst>
 </file>
@@ -357,21 +423,21 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,7 +737,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B3" sqref="B3"/>
@@ -740,7 +806,9 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6"/>
+      <c r="H6">
+        <v>13</v>
+      </c>
       <c r="I6" t="s">
         <v>17</v>
       </c>
@@ -767,7 +835,9 @@
       <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="H7"/>
+      <c r="H7">
+        <v>13</v>
+      </c>
       <c r="I7" t="s">
         <v>23</v>
       </c>
@@ -789,14 +859,16 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8"/>
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -804,24 +876,26 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9"/>
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
       <c r="I9" t="s">
         <v>35</v>
       </c>
@@ -843,14 +917,16 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
         <v>41</v>
-      </c>
-      <c r="H10"/>
-      <c r="I10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -858,26 +934,28 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
         <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11"/>
-      <c r="I11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -885,26 +963,28 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
         <v>51</v>
       </c>
-      <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12"/>
+      <c r="H12">
+        <v>13</v>
+      </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -912,26 +992,28 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
         <v>56</v>
       </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
         <v>57</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -951,12 +1033,14 @@
         <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
         <v>62</v>
       </c>
-      <c r="H14"/>
+      <c r="H14">
+        <v>13</v>
+      </c>
       <c r="I14" t="s">
         <v>63</v>
       </c>
@@ -978,14 +1062,16 @@
         <v>67</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>68</v>
-      </c>
-      <c r="H15"/>
+        <v>69</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -993,26 +1079,28 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
         <v>70</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16"/>
-      <c r="I16" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1020,26 +1108,28 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" t="s">
         <v>77</v>
       </c>
-      <c r="C17" t="s">
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
         <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17"/>
-      <c r="I17" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1047,26 +1137,28 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18"/>
-      <c r="I18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1074,26 +1166,28 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
         <v>85</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" t="s">
         <v>86</v>
       </c>
-      <c r="D19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19"/>
+      <c r="H19">
+        <v>13</v>
+      </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1101,26 +1195,28 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
         <v>88</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>89</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>90</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
         <v>91</v>
       </c>
-      <c r="F20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
         <v>92</v>
-      </c>
-      <c r="H20"/>
-      <c r="I20" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1140,18 +1236,135 @@
         <v>96</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
         <v>97</v>
       </c>
-      <c r="H21"/>
+      <c r="H21">
+        <v>13</v>
+      </c>
       <c r="I21" t="s">
         <v>98</v>
       </c>
     </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23">
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -1163,5 +1376,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>